--- a/InputData/elec/DPbES/Dispatch Priority by Elec Source.xlsx
+++ b/InputData/elec/DPbES/Dispatch Priority by Elec Source.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\elec\DPbES\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="22995" windowHeight="11055" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="22995" windowHeight="11055"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="DPbES" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>DPbES Dispatch Priority by Electricity Source</t>
   </si>
@@ -38,18 +43,12 @@
     <t>As an example, we provide an "environmentally preferred" priority ordering, where</t>
   </si>
   <si>
-    <t>coal</t>
-  </si>
-  <si>
     <t>nuclear</t>
   </si>
   <si>
     <t>hydro</t>
   </si>
   <si>
-    <t>wind</t>
-  </si>
-  <si>
     <t>solar PV</t>
   </si>
   <si>
@@ -96,12 +95,36 @@
   </si>
   <si>
     <t>solar and wind are dispatched first (ignoring peaking plants), and coal is dispatched last.</t>
+  </si>
+  <si>
+    <t>lignite</t>
+  </si>
+  <si>
+    <t>hard coal</t>
+  </si>
+  <si>
+    <t>onshore wind</t>
+  </si>
+  <si>
+    <t>offshore wind</t>
+  </si>
+  <si>
+    <t>crude oil</t>
+  </si>
+  <si>
+    <t>heavy or residual fuel oil</t>
+  </si>
+  <si>
+    <t>municipal solid waste</t>
+  </si>
+  <si>
+    <t>Dispatch Priority (dimensionless)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -139,11 +162,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -154,6 +180,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -202,7 +231,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -237,7 +266,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -448,7 +477,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -469,7 +498,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
@@ -489,22 +518,22 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
@@ -514,22 +543,22 @@
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -543,17 +572,20 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AK12"/>
+  <dimension ref="A1:AK17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" customWidth="1"/>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="B1" s="2">
         <v>2015</v>
       </c>
@@ -665,7 +697,7 @@
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B2">
         <v>5</v>
@@ -813,7 +845,7 @@
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -961,7 +993,7 @@
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -1109,7 +1141,7 @@
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -1257,7 +1289,7 @@
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -1405,7 +1437,7 @@
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -1553,7 +1585,7 @@
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -1701,7 +1733,7 @@
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -1849,7 +1881,7 @@
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -1997,7 +2029,7 @@
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -2145,7 +2177,7 @@
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -2289,6 +2321,751 @@
       <c r="AK12">
         <f t="shared" si="2"/>
         <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13">
+        <f>B2</f>
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13:AK13" si="3">C2</f>
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="AA13">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="AB13">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="AC13">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="AD13">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="AE13">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="AF13">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="AG13">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="AH13">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="AI13">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="AJ13">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="AK13">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14">
+        <f>B6</f>
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ref="C14:AK14" si="4">C6</f>
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AB14">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AC14">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AD14">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AE14">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AF14">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AG14">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AH14">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AI14">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AJ14">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AK14">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15">
+        <f>B11</f>
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ref="C15:AK15" si="5">C11</f>
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AC15">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AD15">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AE15">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AF15">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AG15">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AH15">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AI15">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AJ15">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="AK15">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16">
+        <f>B11</f>
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <f t="shared" ref="C16:AK16" si="6">C11</f>
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Y16">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AA16">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AB16">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AC16">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AD16">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AE16">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AF16">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AG16">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AH16">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AI16">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AJ16">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AK16">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17">
+        <f>B9</f>
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ref="C17:AK17" si="7">C9</f>
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="Y17">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="AB17">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="AC17">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="AD17">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="AE17">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="AF17">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="AG17">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="AH17">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="AI17">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="AJ17">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="AK17">
+        <f t="shared" si="7"/>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
